--- a/data/raw/N2vsN3_h2.xlsx
+++ b/data/raw/N2vsN3_h2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/PhD_Berkeley/Projects/Ballinger_allenbergmann_AmNat_2021/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B092369-5948-494D-A5BE-1581B041B676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9356EB12-5045-BB46-9868-9068D2614D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{F1BDD2D3-8BD6-2D4A-A553-2A7F7736C8EB}"/>
+    <workbookView xWindow="31240" yWindow="1060" windowWidth="28800" windowHeight="16420" xr2:uid="{F1BDD2D3-8BD6-2D4A-A553-2A7F7736C8EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>A4</t>
   </si>
   <si>
-    <t>NJS407</t>
-  </si>
-  <si>
     <t>MJS159</t>
   </si>
   <si>
@@ -727,6 +724,9 @@
   </si>
   <si>
     <t>MJS365</t>
+  </si>
+  <si>
+    <t>MJS407</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1085,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,15 +1141,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -1158,317 +1158,316 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="H2">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="K2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N2">
         <v>15</v>
       </c>
       <c r="O2">
-        <v>19.7</v>
+        <v>16.8</v>
       </c>
       <c r="P2">
         <v>90</v>
       </c>
       <c r="Q2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="H3">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L3">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>14</v>
       </c>
       <c r="O3">
-        <v>21.1</v>
+        <v>13.7</v>
       </c>
       <c r="P3">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q3">
-        <v>134</v>
-      </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="G4">
-        <v>84</v>
+        <v>263</v>
       </c>
       <c r="H4">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
       </c>
       <c r="K4">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L4">
+        <v>81</v>
+      </c>
+      <c r="M4">
+        <v>17</v>
+      </c>
+      <c r="N4">
+        <v>14.5</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
         <v>80</v>
       </c>
-      <c r="M4">
-        <v>20</v>
-      </c>
-      <c r="N4">
-        <v>14</v>
-      </c>
-      <c r="O4">
-        <v>23.9</v>
-      </c>
-      <c r="P4">
-        <v>99</v>
-      </c>
       <c r="Q4">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="G5">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="H5">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N5">
         <v>14</v>
       </c>
       <c r="O5">
-        <v>20.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="P5">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Q5">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="G6">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="H6">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="M6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>14</v>
       </c>
       <c r="O6">
-        <v>20.399999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="P6">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="Q6">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="G7">
-        <v>84</v>
+        <v>255</v>
       </c>
       <c r="H7">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="L7">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O7">
-        <v>22.3</v>
+        <v>16.8</v>
       </c>
       <c r="P7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q7">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1477,213 +1476,210 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G8">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="H8">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L8">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>14</v>
       </c>
       <c r="O8">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="P8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q8">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="G9">
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="H9">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="K9">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L9">
+        <v>87</v>
+      </c>
+      <c r="M9">
+        <v>18</v>
+      </c>
+      <c r="N9">
+        <v>14</v>
+      </c>
+      <c r="O9">
+        <v>23.3</v>
+      </c>
+      <c r="P9">
+        <v>88</v>
+      </c>
+      <c r="Q9">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10">
+        <v>209</v>
+      </c>
+      <c r="H10">
+        <v>208</v>
+      </c>
+      <c r="I10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>165</v>
+      </c>
+      <c r="L10">
         <v>83</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>19</v>
       </c>
-      <c r="N9">
+      <c r="N10">
+        <v>14</v>
+      </c>
+      <c r="O10">
         <v>15</v>
       </c>
-      <c r="O9">
-        <v>18.5</v>
-      </c>
-      <c r="P9">
-        <v>83</v>
-      </c>
-      <c r="Q9">
+      <c r="P10">
+        <v>82</v>
+      </c>
+      <c r="Q10">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11">
+        <v>254</v>
+      </c>
+      <c r="H11">
+        <v>222</v>
+      </c>
+      <c r="I11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10">
-        <v>66</v>
-      </c>
-      <c r="H10">
-        <v>67</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10">
-        <v>174</v>
-      </c>
-      <c r="L10">
-        <v>84</v>
-      </c>
-      <c r="M10">
-        <v>18</v>
-      </c>
-      <c r="N10">
-        <v>16</v>
-      </c>
-      <c r="O10">
-        <v>24.4</v>
-      </c>
-      <c r="P10">
-        <v>90</v>
-      </c>
-      <c r="Q10">
-        <v>165</v>
-      </c>
-      <c r="R10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11">
-        <v>66</v>
-      </c>
-      <c r="H11">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O11">
-        <v>18.2</v>
+        <v>20.2</v>
       </c>
       <c r="P11">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Q11">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1692,484 +1688,469 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="G12">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="H12">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
       </c>
       <c r="K12">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L12">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12">
-        <v>21.6</v>
+        <v>14.8</v>
       </c>
       <c r="P12">
         <v>84</v>
       </c>
       <c r="Q12">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="G13">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="H13">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="K13">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="L13">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N13">
         <v>14</v>
       </c>
       <c r="O13">
-        <v>21.5</v>
+        <v>16.5</v>
       </c>
       <c r="P13">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Q13">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="G14">
+        <v>250</v>
+      </c>
+      <c r="H14">
+        <v>247</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14">
+        <v>169</v>
+      </c>
+      <c r="L14">
+        <v>82</v>
+      </c>
+      <c r="M14">
+        <v>18</v>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <v>15.6</v>
+      </c>
+      <c r="P14">
+        <v>87</v>
+      </c>
+      <c r="Q14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15">
+        <v>260</v>
+      </c>
+      <c r="H15">
+        <v>220</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15">
+        <v>169</v>
+      </c>
+      <c r="L15">
         <v>76</v>
       </c>
-      <c r="H14">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14">
-        <v>188</v>
-      </c>
-      <c r="L14">
-        <v>88</v>
-      </c>
-      <c r="M14">
-        <v>19</v>
-      </c>
-      <c r="N14">
-        <v>15</v>
-      </c>
-      <c r="O14">
-        <v>23.6</v>
-      </c>
-      <c r="P14">
-        <v>100</v>
-      </c>
-      <c r="Q14">
-        <v>209</v>
-      </c>
-      <c r="R14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15">
-        <v>76</v>
-      </c>
-      <c r="H15">
-        <v>56</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15">
-        <v>191</v>
-      </c>
-      <c r="L15">
-        <v>87</v>
-      </c>
       <c r="M15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15">
-        <v>21.5</v>
+        <v>18.8</v>
       </c>
       <c r="P15">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="Q15">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="G16">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="K16">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="L16">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O16">
-        <v>27.8</v>
+        <v>16.8</v>
       </c>
       <c r="P16">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q16">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="G17">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="H17">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L17">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="M17">
         <v>19</v>
       </c>
       <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>15.8</v>
+      </c>
+      <c r="P17">
+        <v>81</v>
+      </c>
+      <c r="Q17">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18">
+        <v>254</v>
+      </c>
+      <c r="H18">
+        <v>215</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>162</v>
+      </c>
+      <c r="L18">
+        <v>82</v>
+      </c>
+      <c r="M18">
+        <v>18</v>
+      </c>
+      <c r="N18">
         <v>14</v>
       </c>
-      <c r="O17">
-        <v>25</v>
-      </c>
-      <c r="P17">
-        <v>93</v>
-      </c>
-      <c r="Q17">
-        <v>183</v>
-      </c>
-      <c r="R17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18">
-        <v>76</v>
-      </c>
-      <c r="H18">
-        <v>56</v>
-      </c>
-      <c r="I18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18">
-        <v>169</v>
-      </c>
-      <c r="L18">
-        <v>71</v>
-      </c>
-      <c r="M18">
-        <v>19</v>
-      </c>
-      <c r="N18">
-        <v>15</v>
-      </c>
       <c r="O18">
-        <v>28.9</v>
+        <v>20.2</v>
       </c>
       <c r="P18">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="Q18">
-        <v>209</v>
-      </c>
-      <c r="R18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="G19">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="H19">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="K19">
-        <v>178</v>
-      </c>
-      <c r="L19">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="M19">
-        <v>19</v>
-      </c>
-      <c r="N19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O19">
-        <v>26.8</v>
+        <v>15.2</v>
       </c>
       <c r="P19">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="Q19">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="G20">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="H20">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="K20">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L20">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O20">
-        <v>21.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="P20">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q20">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -2178,157 +2159,157 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="G21">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="H21">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L21">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>14</v>
       </c>
       <c r="O21">
-        <v>23.9</v>
+        <v>15.8</v>
       </c>
       <c r="P21">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="Q21">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="G22">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="H22">
+        <v>215</v>
+      </c>
+      <c r="I22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>159</v>
+      </c>
+      <c r="L22">
         <v>81</v>
-      </c>
-      <c r="I22" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22">
-        <v>175</v>
-      </c>
-      <c r="L22">
-        <v>80</v>
       </c>
       <c r="M22">
         <v>19</v>
       </c>
       <c r="N22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O22">
-        <v>19.3</v>
+        <v>15.9</v>
       </c>
       <c r="P22">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="Q22">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="G23">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="H23">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="K23">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="L23">
+        <v>80</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>15</v>
+      </c>
+      <c r="O23">
+        <v>15.8</v>
+      </c>
+      <c r="P23">
+        <v>85</v>
+      </c>
+      <c r="Q23">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
         <v>79</v>
-      </c>
-      <c r="M23">
-        <v>19</v>
-      </c>
-      <c r="N23">
-        <v>13</v>
-      </c>
-      <c r="O23">
-        <v>19.7</v>
-      </c>
-      <c r="P23">
-        <v>93</v>
-      </c>
-      <c r="Q23">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -2337,367 +2318,361 @@
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G24">
+        <v>261</v>
+      </c>
+      <c r="H24">
+        <v>239</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24">
+        <v>179</v>
+      </c>
+      <c r="L24">
+        <v>87</v>
+      </c>
+      <c r="M24">
+        <v>18</v>
+      </c>
+      <c r="N24">
+        <v>15</v>
+      </c>
+      <c r="O24">
+        <v>31.7</v>
+      </c>
+      <c r="P24">
         <v>92</v>
       </c>
-      <c r="H24">
-        <v>91</v>
-      </c>
-      <c r="I24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24">
-        <v>189</v>
-      </c>
-      <c r="L24">
-        <v>85</v>
-      </c>
-      <c r="M24">
-        <v>20</v>
-      </c>
-      <c r="N24">
-        <v>16</v>
-      </c>
-      <c r="O24">
-        <v>41.2</v>
-      </c>
-      <c r="P24">
-        <v>104</v>
-      </c>
       <c r="Q24">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G25">
+        <v>209</v>
+      </c>
+      <c r="H25">
+        <v>208</v>
+      </c>
+      <c r="I25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25">
+        <v>183</v>
+      </c>
+      <c r="L25">
         <v>92</v>
       </c>
-      <c r="H25">
+      <c r="M25">
+        <v>17</v>
+      </c>
+      <c r="N25">
+        <v>13</v>
+      </c>
+      <c r="O25">
+        <v>15.6</v>
+      </c>
+      <c r="P25">
         <v>91</v>
       </c>
-      <c r="I25" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25">
-        <v>182</v>
-      </c>
-      <c r="L25">
-        <v>86</v>
-      </c>
-      <c r="M25">
-        <v>19</v>
-      </c>
-      <c r="N25">
+      <c r="Q25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26">
+        <v>238</v>
+      </c>
+      <c r="H26">
+        <v>228</v>
+      </c>
+      <c r="I26" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26">
+        <v>172</v>
+      </c>
+      <c r="L26">
+        <v>82</v>
+      </c>
+      <c r="M26">
         <v>16</v>
-      </c>
-      <c r="O25">
-        <v>21</v>
-      </c>
-      <c r="P25">
-        <v>96</v>
-      </c>
-      <c r="Q25">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26">
-        <v>92</v>
-      </c>
-      <c r="H26">
-        <v>91</v>
-      </c>
-      <c r="I26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26">
-        <v>168</v>
-      </c>
-      <c r="L26">
-        <v>83</v>
-      </c>
-      <c r="M26">
-        <v>18</v>
       </c>
       <c r="N26">
         <v>14</v>
       </c>
       <c r="O26">
-        <v>24.3</v>
+        <v>15.1</v>
       </c>
       <c r="P26">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q26">
-        <v>193</v>
-      </c>
-      <c r="R26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G27">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="H27">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="K27">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L27">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O27">
-        <v>22.9</v>
+        <v>21.3</v>
       </c>
       <c r="P27">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Q27">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="G28">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="H28">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="K28">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="L28">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M28">
         <v>18</v>
       </c>
       <c r="N28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O28">
-        <v>29.4</v>
+        <v>18.2</v>
       </c>
       <c r="P28">
+        <v>90</v>
+      </c>
+      <c r="Q28">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29">
+        <v>260</v>
+      </c>
+      <c r="H29">
+        <v>220</v>
+      </c>
+      <c r="I29" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29">
+        <v>178</v>
+      </c>
+      <c r="L29">
+        <v>82</v>
+      </c>
+      <c r="M29">
+        <v>19</v>
+      </c>
+      <c r="N29">
+        <v>14</v>
+      </c>
+      <c r="O29">
+        <v>24.4</v>
+      </c>
+      <c r="P29">
         <v>96</v>
       </c>
-      <c r="Q28">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>229</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29">
-        <v>92</v>
-      </c>
-      <c r="H29">
-        <v>91</v>
-      </c>
-      <c r="I29" t="s">
-        <v>228</v>
-      </c>
-      <c r="J29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29">
-        <v>192</v>
-      </c>
-      <c r="L29">
-        <v>85</v>
-      </c>
-      <c r="M29">
-        <v>18</v>
-      </c>
-      <c r="N29">
-        <v>15</v>
-      </c>
-      <c r="O29">
-        <v>27.8</v>
-      </c>
-      <c r="P29">
-        <v>107</v>
-      </c>
       <c r="Q29">
-        <v>259</v>
-      </c>
-      <c r="R29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="G30">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="H30">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="I30" t="s">
-        <v>228</v>
+        <v>100</v>
       </c>
       <c r="J30" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="K30">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="L30">
+        <v>75</v>
+      </c>
+      <c r="M30">
+        <v>18</v>
+      </c>
+      <c r="N30">
+        <v>13</v>
+      </c>
+      <c r="O30">
+        <v>15.3</v>
+      </c>
+      <c r="P30">
         <v>82</v>
       </c>
-      <c r="M30">
-        <v>18</v>
-      </c>
-      <c r="N30">
-        <v>16</v>
-      </c>
-      <c r="O30">
-        <v>20.5</v>
-      </c>
-      <c r="P30">
-        <v>117</v>
-      </c>
       <c r="Q30">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2705,7 +2680,7 @@
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
@@ -2714,43 +2689,43 @@
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="G31">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H31">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I31" t="s">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L31">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O31">
-        <v>24.1</v>
+        <v>15.5</v>
       </c>
       <c r="P31">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q31">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2758,49 +2733,49 @@
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="G32">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H32">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="J32" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K32">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L32">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>15</v>
       </c>
       <c r="O32">
-        <v>22.7</v>
+        <v>29.4</v>
       </c>
       <c r="P32">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="Q32">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2811,49 +2786,46 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G33">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="H33">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="I33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33">
         <v>176</v>
       </c>
-      <c r="J33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33">
-        <v>189</v>
-      </c>
       <c r="L33">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>14</v>
       </c>
       <c r="O33">
-        <v>19.7</v>
+        <v>20.3</v>
       </c>
       <c r="P33">
-        <v>109</v>
-      </c>
-      <c r="Q33">
-        <v>274</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -2864,49 +2836,49 @@
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="G34">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34">
+        <v>81</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34">
+        <v>179</v>
+      </c>
+      <c r="L34">
         <v>80</v>
-      </c>
-      <c r="I34" t="s">
-        <v>176</v>
-      </c>
-      <c r="J34" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34">
-        <v>169</v>
-      </c>
-      <c r="L34">
-        <v>77</v>
       </c>
       <c r="M34">
         <v>19</v>
       </c>
       <c r="N34">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O34">
-        <v>18.2</v>
+        <v>21.8</v>
       </c>
       <c r="P34">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Q34">
-        <v>274</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2917,7 +2889,7 @@
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -2926,40 +2898,40 @@
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="G35">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="H35">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="K35">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L35">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N35">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O35">
-        <v>26.4</v>
+        <v>21</v>
       </c>
       <c r="P35">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q35">
-        <v>314</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -2970,34 +2942,34 @@
         <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G36">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J36" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="K36">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="L36">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="M36">
         <v>19</v>
@@ -3006,13 +2978,13 @@
         <v>14</v>
       </c>
       <c r="O36">
-        <v>27.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="P36">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="Q36">
-        <v>284</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -3023,16 +2995,16 @@
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G37">
         <v>44</v>
@@ -3041,16 +3013,16 @@
         <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K37">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="L37">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M37">
         <v>20</v>
@@ -3059,13 +3031,13 @@
         <v>14</v>
       </c>
       <c r="O37">
-        <v>21.7</v>
+        <v>26.4</v>
       </c>
       <c r="P37">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="Q37">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -3076,7 +3048,7 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
@@ -3085,40 +3057,40 @@
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G38">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="H38">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I38" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="J38" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="L38">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N38">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O38">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="P38">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Q38">
-        <v>358</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -3129,49 +3101,49 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G39">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="H39">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J39" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="K39">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="L39">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>15</v>
       </c>
       <c r="O39">
-        <v>20.8</v>
+        <v>24.1</v>
       </c>
       <c r="P39">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="Q39">
-        <v>358</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
@@ -3182,49 +3154,49 @@
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G40">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="K40">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="L40">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M40">
         <v>19</v>
       </c>
       <c r="N40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O40">
-        <v>20.7</v>
+        <v>26.9</v>
       </c>
       <c r="P40">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q40">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -3235,7 +3207,7 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="D41" t="s">
         <v>20</v>
@@ -3244,7 +3216,7 @@
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G41">
         <v>34</v>
@@ -3253,31 +3225,31 @@
         <v>38</v>
       </c>
       <c r="I41" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="J41" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="K41">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L41">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O41">
-        <v>18.600000000000001</v>
+        <v>21.4</v>
       </c>
       <c r="P41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q41">
-        <v>135</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -3288,49 +3260,49 @@
         <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G42">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H42">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J42" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L42">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="M42">
         <v>20</v>
       </c>
       <c r="N42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O42">
-        <v>24.2</v>
+        <v>19.2</v>
       </c>
       <c r="P42">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Q42">
-        <v>135</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -3341,52 +3313,49 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="G43">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="H43">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="J43" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="K43">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L43">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O43">
-        <v>29.2</v>
+        <v>19.7</v>
       </c>
       <c r="P43">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Q43">
-        <v>202</v>
-      </c>
-      <c r="R43" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -3397,60 +3366,60 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="G44">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H44">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="K44">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L44">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O44">
-        <v>20.2</v>
+        <v>21.6</v>
       </c>
       <c r="P44">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q44">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
         <v>20</v>
@@ -3459,40 +3428,40 @@
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G45">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H45">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J45" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="K45">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L45">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N45">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O45">
-        <v>18.3</v>
+        <v>17.3</v>
       </c>
       <c r="P45">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Q45">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -3503,49 +3472,52 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="H46">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K46">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="L46">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O46">
-        <v>22.7</v>
+        <v>25</v>
       </c>
       <c r="P46">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q46">
-        <v>281</v>
+        <v>183</v>
+      </c>
+      <c r="R46" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -3556,34 +3528,34 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="G47">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="H47">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="I47" t="s">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="K47">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L47">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M47">
         <v>19</v>
@@ -3592,13 +3564,13 @@
         <v>15</v>
       </c>
       <c r="O47">
-        <v>25.6</v>
+        <v>18.5</v>
       </c>
       <c r="P47">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="Q47">
-        <v>199</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
@@ -3609,105 +3581,105 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="G48">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="H48">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="J48" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L48">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N48">
         <v>14</v>
       </c>
       <c r="O48">
-        <v>19.7</v>
+        <v>23.9</v>
       </c>
       <c r="P48">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q48">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G49">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H49">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I49" t="s">
         <v>206</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K49">
         <v>171</v>
       </c>
       <c r="L49">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>15</v>
       </c>
       <c r="O49">
-        <v>17.3</v>
+        <v>24</v>
       </c>
       <c r="P49">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q49">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3715,7 +3687,7 @@
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
@@ -3724,43 +3696,43 @@
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G50">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H50">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I50" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J50" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="K50">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="L50">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N50">
         <v>15</v>
       </c>
       <c r="O50">
-        <v>21.6</v>
+        <v>22.7</v>
       </c>
       <c r="P50">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q50">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3768,49 +3740,52 @@
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="G51">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H51">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="K51">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="L51">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O51">
-        <v>21.1</v>
+        <v>41.2</v>
       </c>
       <c r="P51">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="Q51">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3818,49 +3793,52 @@
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="G52">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K52">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="L52">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O52">
-        <v>23.4</v>
+        <v>24.2</v>
       </c>
       <c r="P52">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Q52">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3868,34 +3846,34 @@
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="G53">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="H53">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="I53" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="J53" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="K53">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L53">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M53">
         <v>19</v>
@@ -3904,13 +3882,17 @@
         <v>14</v>
       </c>
       <c r="O53">
-        <v>20.3</v>
+        <v>21.1</v>
       </c>
       <c r="P53">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="Q53">
+        <v>134</v>
+      </c>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3918,7 +3900,7 @@
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="D54" t="s">
         <v>25</v>
@@ -3927,43 +3909,43 @@
         <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G54">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H54">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="K54">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L54">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N54">
         <v>15</v>
       </c>
       <c r="O54">
-        <v>24</v>
+        <v>21.6</v>
       </c>
       <c r="P54">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q54">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3971,52 +3953,52 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G55">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="H55">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="J55" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="K55">
         <v>165</v>
       </c>
       <c r="L55">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M55">
         <v>19</v>
       </c>
       <c r="N55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O55">
-        <v>19.399999999999999</v>
+        <v>22.7</v>
       </c>
       <c r="P55">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q55">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -4024,16 +4006,16 @@
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G56">
         <v>34</v>
@@ -4042,42 +4024,42 @@
         <v>38</v>
       </c>
       <c r="I56" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J56" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="K56">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L56">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="M56">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N56">
         <v>15</v>
       </c>
       <c r="O56">
-        <v>21.4</v>
+        <v>29.1</v>
       </c>
       <c r="P56">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="Q56">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
         <v>210</v>
-      </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>211</v>
       </c>
       <c r="D57" t="s">
         <v>25</v>
@@ -4086,7 +4068,7 @@
         <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G57">
         <v>34</v>
@@ -4095,10 +4077,10 @@
         <v>38</v>
       </c>
       <c r="I57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K57">
         <v>168</v>
@@ -4122,7 +4104,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -4130,52 +4112,52 @@
         <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G58">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H58">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="K58">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L58">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N58">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O58">
-        <v>19.2</v>
+        <v>20.8</v>
       </c>
       <c r="P58">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q58">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -4183,52 +4165,52 @@
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
         <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="G59">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H59">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I59" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="K59">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L59">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N59">
         <v>14</v>
       </c>
       <c r="O59">
-        <v>27</v>
+        <v>21.5</v>
       </c>
       <c r="P59">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q59">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -4236,34 +4218,34 @@
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="G60">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H60">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I60" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="K60">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="L60">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M60">
         <v>19</v>
@@ -4272,77 +4254,80 @@
         <v>15</v>
       </c>
       <c r="O60">
-        <v>26.9</v>
+        <v>27.8</v>
       </c>
       <c r="P60">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="Q60">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61">
+        <v>254</v>
+      </c>
+      <c r="H61">
         <v>215</v>
       </c>
-      <c r="D61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" t="s">
-        <v>189</v>
-      </c>
-      <c r="G61">
-        <v>34</v>
-      </c>
-      <c r="H61">
-        <v>38</v>
-      </c>
       <c r="I61" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="J61" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="K61">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="L61">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N61">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O61">
-        <v>29.1</v>
+        <v>20.5</v>
       </c>
       <c r="P61">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="Q61">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="R61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
         <v>20</v>
@@ -4351,210 +4336,210 @@
         <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="G62">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="H62">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="I62" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="J62" t="s">
         <v>23</v>
       </c>
       <c r="K62">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L62">
-        <v>76.5</v>
+        <v>80</v>
       </c>
       <c r="M62">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N62">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O62">
-        <v>18.7</v>
+        <v>17</v>
       </c>
       <c r="P62">
-        <v>85.5</v>
+        <v>89</v>
       </c>
       <c r="Q62">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E63" t="s">
         <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="G63">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="H63">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="I63" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="J63" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K63">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L63">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M63">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>14</v>
       </c>
       <c r="O63">
-        <v>39.6</v>
+        <v>15.1</v>
       </c>
       <c r="P63">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q63">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="D64" t="s">
         <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="G64">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="H64">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I64" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="J64" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="K64">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="L64">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="M64">
         <v>18</v>
       </c>
       <c r="N64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O64">
-        <v>23.3</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="P64">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q64">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="G65">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="H65">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="I65" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="J65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K65">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="L65">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M65">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N65">
         <v>15</v>
       </c>
       <c r="O65">
-        <v>31.7</v>
+        <v>28.5</v>
       </c>
       <c r="P65">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q65">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s">
         <v>20</v>
@@ -4563,51 +4548,51 @@
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="G66">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H66">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="I66" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J66" t="s">
+        <v>164</v>
+      </c>
+      <c r="K66">
+        <v>165</v>
+      </c>
+      <c r="L66">
         <v>83</v>
       </c>
-      <c r="K66">
-        <v>170</v>
-      </c>
-      <c r="L66">
-        <v>80</v>
-      </c>
       <c r="M66">
         <v>18</v>
       </c>
       <c r="N66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O66">
-        <v>26.4</v>
+        <v>14.6</v>
       </c>
       <c r="P66">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q66">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
         <v>20</v>
@@ -4616,25 +4601,25 @@
         <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G67">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="H67">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="I67" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K67">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L67">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M67">
         <v>18</v>
@@ -4643,33 +4628,33 @@
         <v>14</v>
       </c>
       <c r="O67">
-        <v>17.600000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="P67">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q67">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
         <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G68">
         <v>261</v>
@@ -4678,25 +4663,25 @@
         <v>239</v>
       </c>
       <c r="I68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="K68">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L68">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M68">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N68">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O68">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="P68">
         <v>90</v>
@@ -4705,121 +4690,121 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
         <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G69">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H69">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="I69" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J69" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="K69">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L69">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M69">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N69">
         <v>14</v>
       </c>
       <c r="O69">
-        <v>16.899999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="P69">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="Q69">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="G70">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="H70">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="I70" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="J70" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="K70">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="L70">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M70">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N70">
         <v>14</v>
       </c>
       <c r="O70">
-        <v>17.899999999999999</v>
+        <v>13.7</v>
       </c>
       <c r="P70">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="Q70">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="D71" t="s">
         <v>20</v>
@@ -4828,7 +4813,7 @@
         <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G71">
         <v>254</v>
@@ -4837,42 +4822,45 @@
         <v>222</v>
       </c>
       <c r="I71" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="J71" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K71">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L71">
+        <v>85</v>
+      </c>
+      <c r="M71">
+        <v>18</v>
+      </c>
+      <c r="N71">
+        <v>13</v>
+      </c>
+      <c r="O71">
+        <v>25.8</v>
+      </c>
+      <c r="P71">
         <v>81</v>
       </c>
-      <c r="M71">
-        <v>18</v>
-      </c>
-      <c r="N71">
-        <v>14</v>
-      </c>
-      <c r="O71">
-        <v>21.3</v>
-      </c>
-      <c r="P71">
-        <v>91</v>
-      </c>
       <c r="Q71">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="R71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
         <v>20</v>
@@ -4881,7 +4869,7 @@
         <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G72">
         <v>254</v>
@@ -4890,10 +4878,10 @@
         <v>222</v>
       </c>
       <c r="I72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K72">
         <v>170</v>
@@ -4917,24 +4905,24 @@
         <v>258</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E73" t="s">
         <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G73">
         <v>254</v>
@@ -4943,148 +4931,148 @@
         <v>222</v>
       </c>
       <c r="I73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K73">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L73">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M73">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N73">
         <v>14</v>
       </c>
       <c r="O73">
-        <v>28.1</v>
+        <v>21.3</v>
       </c>
       <c r="P73">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q73">
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74">
+        <v>224</v>
+      </c>
+      <c r="H74">
+        <v>225</v>
+      </c>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+      <c r="J74" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74">
+        <v>174</v>
+      </c>
+      <c r="L74">
+        <v>83</v>
+      </c>
+      <c r="M74">
+        <v>15</v>
+      </c>
+      <c r="N74">
+        <v>13</v>
+      </c>
+      <c r="O74">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="P74">
         <v>91</v>
       </c>
-      <c r="B74" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" t="s">
-        <v>93</v>
-      </c>
-      <c r="G74">
+      <c r="Q74">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" t="s">
+        <v>223</v>
+      </c>
+      <c r="G75">
+        <v>255</v>
+      </c>
+      <c r="H75">
+        <v>193</v>
+      </c>
+      <c r="I75" t="s">
         <v>221</v>
       </c>
-      <c r="H74">
-        <v>215</v>
-      </c>
-      <c r="I74" t="s">
-        <v>96</v>
-      </c>
-      <c r="J74" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74">
-        <v>172</v>
-      </c>
-      <c r="L74">
-        <v>80</v>
-      </c>
-      <c r="M74">
-        <v>17</v>
-      </c>
-      <c r="N74">
-        <v>14</v>
-      </c>
-      <c r="O74">
-        <v>13.7</v>
-      </c>
-      <c r="P74">
-        <v>92</v>
-      </c>
-      <c r="Q74">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75" t="s">
-        <v>21</v>
-      </c>
-      <c r="F75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G75">
-        <v>221</v>
-      </c>
-      <c r="H75">
-        <v>215</v>
-      </c>
-      <c r="I75" t="s">
-        <v>96</v>
-      </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="K75">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="L75">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="M75">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="N75">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O75">
-        <v>15.9</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="P75">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="Q75">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
         <v>20</v>
@@ -5093,252 +5081,255 @@
         <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G76">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="H76">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I76" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="K76">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L76">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M76">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N76">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O76">
-        <v>16.8</v>
+        <v>21.7</v>
       </c>
       <c r="P76">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q76">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E77" t="s">
         <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="G77">
+        <v>255</v>
+      </c>
+      <c r="H77">
+        <v>193</v>
+      </c>
+      <c r="I77" t="s">
         <v>221</v>
       </c>
-      <c r="H77">
-        <v>215</v>
-      </c>
-      <c r="I77" t="s">
-        <v>96</v>
-      </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="K77">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="L77">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="M77">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="N77">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O77">
-        <v>18.8</v>
+        <v>20</v>
       </c>
       <c r="P77">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Q77">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D78" t="s">
         <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G78">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="H78">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="I78" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="K78">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L78">
         <v>82</v>
       </c>
       <c r="M78">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N78">
+        <v>12</v>
+      </c>
+      <c r="O78">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="P78">
+        <v>83</v>
+      </c>
+      <c r="Q78">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" t="s">
+        <v>121</v>
+      </c>
+      <c r="G79">
+        <v>202</v>
+      </c>
+      <c r="H79">
+        <v>246</v>
+      </c>
+      <c r="I79" t="s">
+        <v>122</v>
+      </c>
+      <c r="J79" t="s">
+        <v>77</v>
+      </c>
+      <c r="K79">
+        <v>170</v>
+      </c>
+      <c r="L79">
+        <v>81</v>
+      </c>
+      <c r="M79">
+        <v>18</v>
+      </c>
+      <c r="N79">
         <v>14</v>
       </c>
-      <c r="O78">
-        <v>16.2</v>
-      </c>
-      <c r="P78">
+      <c r="O79">
+        <v>21.1</v>
+      </c>
+      <c r="P79">
         <v>89</v>
       </c>
-      <c r="Q78">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="Q79">
+        <v>691</v>
+      </c>
+      <c r="R79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" t="s">
         <v>25</v>
-      </c>
-      <c r="E79" t="s">
-        <v>21</v>
-      </c>
-      <c r="F79" t="s">
-        <v>99</v>
-      </c>
-      <c r="G79">
-        <v>224</v>
-      </c>
-      <c r="H79">
-        <v>225</v>
-      </c>
-      <c r="I79" t="s">
-        <v>101</v>
-      </c>
-      <c r="J79" t="s">
-        <v>26</v>
-      </c>
-      <c r="K79">
-        <v>157</v>
-      </c>
-      <c r="L79">
-        <v>75</v>
-      </c>
-      <c r="M79">
-        <v>18</v>
-      </c>
-      <c r="N79">
-        <v>13</v>
-      </c>
-      <c r="O79">
-        <v>15.3</v>
-      </c>
-      <c r="P79">
-        <v>82</v>
-      </c>
-      <c r="Q79">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" t="s">
-        <v>102</v>
-      </c>
-      <c r="D80" t="s">
-        <v>20</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="G80">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="H80">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="I80" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="J80" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="K80">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L80">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M80">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N80">
         <v>13</v>
       </c>
       <c r="O80">
-        <v>17.100000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="P80">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q80">
-        <v>405</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
@@ -5346,10 +5337,10 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="D81" t="s">
         <v>25</v>
@@ -5358,40 +5349,40 @@
         <v>29</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="G81">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="H81">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="I81" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="J81" t="s">
         <v>26</v>
       </c>
       <c r="K81">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L81">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M81">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N81">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O81">
-        <v>23.7</v>
+        <v>16.7</v>
       </c>
       <c r="P81">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="Q81">
-        <v>377</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
@@ -5399,52 +5390,52 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="D82" t="s">
         <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="G82">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="H82">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="I82" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="J82" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M82">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N82">
         <v>14</v>
       </c>
       <c r="O82">
-        <v>24.4</v>
+        <v>15</v>
       </c>
       <c r="P82">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="Q82">
-        <v>222</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
@@ -5452,52 +5443,52 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="D83" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="G83">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="H83">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="I83" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="J83" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K83">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L83">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M83">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N83">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O83">
-        <v>18.8</v>
+        <v>19.7</v>
       </c>
       <c r="P83">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="Q83">
-        <v>222</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
@@ -5505,52 +5496,52 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
         <v>29</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G84">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="H84">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I84" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="J84" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L84">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="M84">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N84">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O84">
-        <v>21.7</v>
+        <v>18.8</v>
       </c>
       <c r="P84">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q84">
-        <v>179</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
@@ -5558,10 +5549,10 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="D85" t="s">
         <v>25</v>
@@ -5570,40 +5561,40 @@
         <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="G85">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H85">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="I85" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="J85" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="K85">
         <v>175</v>
       </c>
       <c r="L85">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M85">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N85">
         <v>14</v>
       </c>
       <c r="O85">
-        <v>22.8</v>
+        <v>26.2</v>
       </c>
       <c r="P85">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q85">
-        <v>179</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
@@ -5611,52 +5602,52 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G86">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="H86">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="I86" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="J86" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="K86">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="L86">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="M86">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N86">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O86">
-        <v>16.8</v>
+        <v>18.3</v>
       </c>
       <c r="P86">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q86">
-        <v>194</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
@@ -5664,28 +5655,28 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="D87" t="s">
         <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="G87">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="H87">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I87" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="J87" t="s">
         <v>26</v>
@@ -5694,7 +5685,7 @@
         <v>172</v>
       </c>
       <c r="L87">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M87">
         <v>18</v>
@@ -5703,13 +5694,13 @@
         <v>14</v>
       </c>
       <c r="O87">
-        <v>18.2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="P87">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q87">
-        <v>180</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
@@ -5717,10 +5708,10 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
         <v>25</v>
@@ -5729,40 +5720,40 @@
         <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="G88">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H88">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="I88" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="J88" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K88">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L88">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M88">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N88">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O88">
-        <v>16.5</v>
+        <v>19.3</v>
       </c>
       <c r="P88">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Q88">
-        <v>276</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
@@ -5770,52 +5761,52 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D89" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="G89">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H89">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="I89" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="J89" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="K89">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="L89">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M89">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N89">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O89">
-        <v>15.6</v>
+        <v>28.1</v>
       </c>
       <c r="P89">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q89">
-        <v>180</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
@@ -5823,52 +5814,52 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E90" t="s">
         <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G90">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="H90">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="I90" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="J90" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="K90">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="L90">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M90">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N90">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O90">
-        <v>17.899999999999999</v>
+        <v>23.7</v>
       </c>
       <c r="P90">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="Q90">
-        <v>252</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
@@ -5876,10 +5867,10 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D91" t="s">
         <v>25</v>
@@ -5888,22 +5879,22 @@
         <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G91">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H91">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="I91" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="J91" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="K91">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L91">
         <v>80</v>
@@ -5912,16 +5903,16 @@
         <v>17</v>
       </c>
       <c r="N91">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O91">
-        <v>13.8</v>
+        <v>22.8</v>
       </c>
       <c r="P91">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q91">
-        <v>252</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
@@ -5929,52 +5920,52 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="G92">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="H92">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="I92" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="J92" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="K92">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="L92">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="M92">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N92">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O92">
-        <v>16.5</v>
+        <v>21.7</v>
       </c>
       <c r="P92">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="Q92">
-        <v>279</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
@@ -5982,55 +5973,52 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
         <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G93">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="H93">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I93" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J93" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="K93">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L93">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M93">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N93">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O93">
-        <v>21.1</v>
+        <v>13.8</v>
       </c>
       <c r="P93">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q93">
-        <v>691</v>
-      </c>
-      <c r="R93" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
@@ -6038,10 +6026,10 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D94" t="s">
         <v>25</v>
@@ -6050,7 +6038,7 @@
         <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G94">
         <v>202</v>
@@ -6059,10 +6047,10 @@
         <v>246</v>
       </c>
       <c r="I94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K94">
         <v>170</v>
@@ -6091,52 +6079,52 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E95" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G95">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="H95">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="I95" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="J95" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K95">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="L95">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M95">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N95">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O95">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="P95">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Q95">
-        <v>357</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
@@ -6144,52 +6132,55 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E96" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F96" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="G96">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c r="H96">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="I96" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="J96" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K96">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="L96">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M96">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N96">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O96">
-        <v>15.6</v>
+        <v>24.4</v>
       </c>
       <c r="P96">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q96">
-        <v>240</v>
+        <v>165</v>
+      </c>
+      <c r="R96" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
@@ -6197,10 +6188,10 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="D97" t="s">
         <v>20</v>
@@ -6209,40 +6200,43 @@
         <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="G97">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="H97">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="I97" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="J97" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K97">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L97">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M97">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N97">
         <v>14</v>
       </c>
       <c r="O97">
-        <v>17</v>
+        <v>24.3</v>
       </c>
       <c r="P97">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q97">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="R97" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
@@ -6250,52 +6244,52 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E98" t="s">
         <v>29</v>
       </c>
       <c r="F98" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G98">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="I98" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="J98" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K98">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L98">
-        <v>94</v>
+        <v>76.5</v>
       </c>
       <c r="M98">
         <v>19</v>
       </c>
       <c r="N98">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O98">
-        <v>16.7</v>
+        <v>18.7</v>
       </c>
       <c r="P98">
-        <v>79</v>
+        <v>85.5</v>
       </c>
       <c r="Q98">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
@@ -6303,52 +6297,52 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="D99" t="s">
         <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="G99">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="I99" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="J99" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K99">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L99">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="M99">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N99">
         <v>14</v>
       </c>
       <c r="O99">
-        <v>20.2</v>
+        <v>19.2</v>
       </c>
       <c r="P99">
         <v>88</v>
       </c>
       <c r="Q99">
-        <v>147</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
@@ -6356,52 +6350,52 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F100" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="G100">
-        <v>254</v>
+        <v>9</v>
       </c>
       <c r="H100">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="I100" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="J100" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="K100">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="L100">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="M100">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N100">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O100">
-        <v>21.3</v>
+        <v>25.6</v>
       </c>
       <c r="P100">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q100">
-        <v>147</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
@@ -6409,10 +6403,10 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="D101" t="s">
         <v>20</v>
@@ -6421,43 +6415,40 @@
         <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="G101">
-        <v>254</v>
+        <v>9</v>
       </c>
       <c r="H101">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="I101" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="K101">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L101">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M101">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N101">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O101">
-        <v>25.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="P101">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Q101">
-        <v>152</v>
-      </c>
-      <c r="R101" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
@@ -6465,37 +6456,37 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E102" t="s">
         <v>29</v>
       </c>
       <c r="F102" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G102">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="H102">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="I102" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="J102" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="K102">
         <v>175</v>
       </c>
       <c r="L102">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="M102">
         <v>19</v>
@@ -6507,10 +6498,10 @@
         <v>19.3</v>
       </c>
       <c r="P102">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q102">
-        <v>152</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
@@ -6518,52 +6509,52 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="D103" t="s">
         <v>20</v>
       </c>
       <c r="E103" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F103" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="G103">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="H103">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="I103" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="J103" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K103">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="L103">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M103">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N103">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="O103">
-        <v>12</v>
+        <v>27.3</v>
       </c>
       <c r="P103">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="Q103">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
@@ -6571,46 +6562,55 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E104" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="G104">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="I104" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J104" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>134</v>
+        <v>171</v>
+      </c>
+      <c r="L104">
+        <v>74</v>
       </c>
       <c r="M104">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="N104">
+        <v>14</v>
       </c>
       <c r="O104">
-        <v>15.2</v>
+        <v>29.2</v>
       </c>
       <c r="P104">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="Q104">
-        <v>353</v>
+        <v>202</v>
+      </c>
+      <c r="R104" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
@@ -6618,10 +6618,10 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="D105" t="s">
         <v>20</v>
@@ -6630,40 +6630,43 @@
         <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="G105">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="H105">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="I105" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="J105" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="K105">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="L105">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M105">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N105">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O105">
-        <v>13.7</v>
+        <v>27.8</v>
       </c>
       <c r="P105">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="Q105">
-        <v>317</v>
+        <v>259</v>
+      </c>
+      <c r="R105" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
@@ -6671,10 +6674,10 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D106" t="s">
         <v>20</v>
@@ -6683,40 +6686,43 @@
         <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="G106">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="H106">
-        <v>249</v>
+        <v>56</v>
       </c>
       <c r="I106" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="J106" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="K106">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="L106">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M106">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N106">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O106">
-        <v>14.6</v>
+        <v>23.6</v>
       </c>
       <c r="P106">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="Q106">
-        <v>229</v>
+        <v>209</v>
+      </c>
+      <c r="R106" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
@@ -6724,37 +6730,37 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D107" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E107" t="s">
         <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="G107">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c r="H107">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="I107" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="J107" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K107">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="L107">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M107">
         <v>18</v>
@@ -6763,13 +6769,13 @@
         <v>14</v>
       </c>
       <c r="O107">
-        <v>20.100000000000001</v>
+        <v>19.7</v>
       </c>
       <c r="P107">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="Q107">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
@@ -6777,52 +6783,52 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="D108" t="s">
         <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F108" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="G108">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="H108">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="I108" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="K108">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="L108">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N108">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O108">
-        <v>16.8</v>
+        <v>23.9</v>
       </c>
       <c r="P108">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="Q108">
-        <v>293</v>
+        <v>244</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
@@ -6830,52 +6836,55 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F109" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="G109">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="H109">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="I109" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K109">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L109">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M109">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O109">
-        <v>20.2</v>
+        <v>28.9</v>
       </c>
       <c r="P109">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="Q109">
-        <v>308</v>
+        <v>209</v>
+      </c>
+      <c r="R109" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
@@ -6883,10 +6892,10 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="D110" t="s">
         <v>20</v>
@@ -6895,28 +6904,28 @@
         <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="G110">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="H110">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="I110" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="J110" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="K110">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L110">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M110">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N110">
         <v>14</v>
@@ -6925,13 +6934,10 @@
         <v>20.5</v>
       </c>
       <c r="P110">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q110">
-        <v>190</v>
-      </c>
-      <c r="R110" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
@@ -6939,52 +6945,49 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E111" t="s">
         <v>29</v>
       </c>
       <c r="F111" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="G111">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="H111">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="I111" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="J111" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="K111">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="L111">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="M111">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N111">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O111">
-        <v>15.9</v>
+        <v>21.1</v>
       </c>
       <c r="P111">
-        <v>94</v>
-      </c>
-      <c r="Q111">
-        <v>190</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
@@ -6992,52 +6995,52 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="D112" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E112" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="G112">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="H112">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="I112" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="J112" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="K112">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="L112">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="M112">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N112">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O112">
-        <v>14.8</v>
+        <v>27</v>
       </c>
       <c r="P112">
         <v>84</v>
       </c>
       <c r="Q112">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
@@ -7045,52 +7048,52 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="D113" t="s">
         <v>25</v>
       </c>
       <c r="E113" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F113" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="G113">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c r="H113">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="I113" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="J113" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K113">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L113">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M113">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N113">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O113">
-        <v>15.1</v>
+        <v>18.2</v>
       </c>
       <c r="P113">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Q113">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
@@ -7098,52 +7101,52 @@
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C114" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E114" t="s">
         <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="G114">
-        <v>238</v>
+        <v>92</v>
       </c>
       <c r="H114">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="I114" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="J114" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K114">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L114">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="M114">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N114">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O114">
-        <v>16.600000000000001</v>
+        <v>22.9</v>
       </c>
       <c r="P114">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q114">
-        <v>147</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
@@ -7151,10 +7154,10 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="D115" t="s">
         <v>25</v>
@@ -7163,25 +7166,25 @@
         <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="G115">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="H115">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="I115" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="J115" t="s">
         <v>26</v>
       </c>
       <c r="K115">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L115">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M115">
         <v>19</v>
@@ -7190,13 +7193,13 @@
         <v>14</v>
       </c>
       <c r="O115">
-        <v>19.7</v>
+        <v>39.6</v>
       </c>
       <c r="P115">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="Q115">
-        <v>140</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
@@ -7204,52 +7207,52 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C116" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E116" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="G116">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="H116">
-        <v>228</v>
+        <v>11</v>
       </c>
       <c r="I116" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="K116">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L116">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="M116">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N116">
         <v>14</v>
       </c>
       <c r="O116">
-        <v>15.9</v>
+        <v>19.7</v>
       </c>
       <c r="P116">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="Q116">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -7257,52 +7260,52 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="D117" t="s">
         <v>25</v>
       </c>
       <c r="E117" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F117" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="G117">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="H117">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="I117" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K117">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="L117">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M117">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N117">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O117">
-        <v>15.8</v>
+        <v>19.7</v>
       </c>
       <c r="P117">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="Q117">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -7310,52 +7313,52 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C118" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E118" t="s">
         <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="G118">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="H118">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="I118" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="J118" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K118">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="L118">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="M118">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N118">
         <v>14</v>
       </c>
       <c r="O118">
-        <v>15.1</v>
+        <v>21.7</v>
       </c>
       <c r="P118">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="Q118">
-        <v>174</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -7363,10 +7366,10 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C119" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="D119" t="s">
         <v>25</v>
@@ -7375,25 +7378,25 @@
         <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="G119">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="I119" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K119">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L119">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M119">
         <v>18</v>
@@ -7402,13 +7405,13 @@
         <v>14</v>
       </c>
       <c r="O119">
-        <v>15</v>
+        <v>20.2</v>
       </c>
       <c r="P119">
         <v>89</v>
       </c>
       <c r="Q119">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
@@ -7416,52 +7419,52 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="D120" t="s">
         <v>25</v>
       </c>
       <c r="E120" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F120" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="G120">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="H120">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="I120" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="K120">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="L120">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M120">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N120">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O120">
-        <v>15.8</v>
+        <v>20.5</v>
       </c>
       <c r="P120">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="Q120">
-        <v>315</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
@@ -7469,52 +7472,52 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C121" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E121" t="s">
         <v>29</v>
       </c>
       <c r="F121" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="G121">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="H121">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="I121" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J121" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="K121">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="L121">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M121">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N121">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O121">
-        <v>28.5</v>
+        <v>20.7</v>
       </c>
       <c r="P121">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="Q121">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
@@ -7522,10 +7525,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="D122" t="s">
         <v>25</v>
@@ -7534,40 +7537,40 @@
         <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="G122">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="H122">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="I122" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="J122" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="K122">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L122">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="M122">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N122">
         <v>15</v>
       </c>
       <c r="O122">
-        <v>18.3</v>
+        <v>21.5</v>
       </c>
       <c r="P122">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Q122">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -7575,52 +7578,52 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E123" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F123" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="G123">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="H123">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="I123" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="J123" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K123">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="L123">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="M123">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N123">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O123">
-        <v>16.8</v>
+        <v>18.2</v>
       </c>
       <c r="P123">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Q123">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
@@ -7628,52 +7631,52 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c r="D124" t="s">
         <v>25</v>
       </c>
       <c r="E124" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="G124">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c r="H124">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="I124" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="J124" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="K124">
         <v>165</v>
       </c>
       <c r="L124">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M124">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N124">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O124">
-        <v>15.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="P124">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q124">
-        <v>275</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
@@ -7681,52 +7684,52 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E125" t="s">
         <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="G125">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="H125">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="I125" t="s">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="J125" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="K125">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="L125">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M125">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="N125">
         <v>15</v>
       </c>
       <c r="O125">
-        <v>17.600000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="P125">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q125">
-        <v>383</v>
+        <v>209</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
@@ -7734,52 +7737,49 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E126" t="s">
         <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="G126">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="H126">
-        <v>193</v>
+        <v>13</v>
       </c>
       <c r="I126" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="J126" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="K126">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L126">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M126">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="N126">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O126">
-        <v>20</v>
+        <v>23.4</v>
       </c>
       <c r="P126">
-        <v>98</v>
-      </c>
-      <c r="Q126">
-        <v>576</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -7787,10 +7787,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C127" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D127" t="s">
         <v>25</v>
@@ -7799,43 +7799,49 @@
         <v>29</v>
       </c>
       <c r="F127" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="G127">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c r="H127">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="I127" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="J127" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="K127">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="L127">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M127">
         <v>19</v>
       </c>
       <c r="N127">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O127">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="P127">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q127">
-        <v>425</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S127">
+    <sortCondition ref="E2:E127"/>
+    <sortCondition ref="B2:B127"/>
+    <sortCondition ref="D2:D127"/>
+    <sortCondition ref="C2:C127"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>